--- a/xlsx/卡尔斯巴德洞窟国家公园_intext.xlsx
+++ b/xlsx/卡尔斯巴德洞窟国家公园_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>卡尔斯巴德洞窟国家公园</t>
   </si>
@@ -29,7 +29,7 @@
     <t>IUCN</t>
   </si>
   <si>
-    <t>政策_政策_美國_卡尔斯巴德洞窟国家公园</t>
+    <t>政策_政策_美国_卡尔斯巴德洞窟国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%BF%AA%E7%B8%A3_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃迪縣 (新墨西哥州)</t>
+    <t>埃迪县 (新墨西哥州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
@@ -77,31 +77,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>Template talk-美國國家公園</t>
+    <t>Template talk-美国国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%A7%91%E5%BA%95%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>阿科底亞國家公園</t>
+    <t>阿科底亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美屬薩摩亞國家公園</t>
+    <t>美属萨摩亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拱門國家公園</t>
+    <t>拱门国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -113,13 +110,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%8E%E6%9B%B2%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大彎曲國家公園</t>
+    <t>大弯曲国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E5%9D%8E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>比斯坎國家公園</t>
+    <t>比斯坎国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%B0%BC%E9%80%8A%E9%BB%91%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>布萊斯峽谷國家公園</t>
+    <t>布莱斯峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>火山口湖國家公園</t>
+    <t>火山口湖国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E9%9B%85%E8%8D%B7%E5%8A%A0%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>死亡谷國家公園</t>
+    <t>死亡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%BA%B3%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E7%A6%81%E7%8C%8E%E5%8C%BA</t>
@@ -185,13 +182,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%BE%9C%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>乾龜國家公園</t>
+    <t>干龟国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%BC%E6%BE%A4%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大沼澤地國家公園</t>
+    <t>大沼泽地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E9%97%A8%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -203,31 +200,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>冰川國家公園 (美國)</t>
+    <t>冰川国家公园 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>冰川灣國家公園</t>
+    <t>冰川湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大峽谷國家公園</t>
+    <t>大峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%92%82%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大蒂頓國家公園</t>
+    <t>大蒂顿国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大盆地國家公園</t>
+    <t>大盆地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%99%E4%B8%98%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -239,25 +236,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%85%99%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大煙山國家公園</t>
+    <t>大烟山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E6%B4%9B%E6%99%AE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瓜達洛普山國家公園</t>
+    <t>瓜达洛普山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8B%92%E5%8D%A1%E6%8B%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>海勒卡拉國家公園</t>
+    <t>海勒卡拉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>夏威夷火山國家公園</t>
+    <t>夏威夷火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%B3%89%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -269,25 +266,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>皇家島國家公園</t>
+    <t>皇家岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%E6%A8%B9%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>約書亞樹國家公園</t>
+    <t>约书亚树国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%82%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>卡特邁國家公園和自然保護區</t>
+    <t>卡特迈国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A5%88%E5%B3%BD%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>基奈峽灣國家公園</t>
+    <t>基奈峡湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%8E%8B%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -299,25 +296,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%AF%E5%85%8B%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>科伯克谷國家公園</t>
+    <t>科伯克谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>克拉克湖國家公園和自然保護區</t>
+    <t>克拉克湖国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拉森火山國家公園</t>
+    <t>拉森火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8D%81%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>猛獁洞國家公園</t>
+    <t>猛犸洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%90%A8%E7%BB%B4%E5%BE%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -329,109 +326,109 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瑞尼爾山國家公園</t>
+    <t>瑞尼尔山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E6%96%AF%E9%96%8B%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>北喀斯開山國家公園</t>
+    <t>北喀斯开山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>奧林匹克國家公園</t>
+    <t>奥林匹克国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8C%96%E6%9E%97%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>石化林國家公園</t>
+    <t>石化林国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E9%A0%82%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>尖頂國家公園</t>
+    <t>尖顶国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅木國家公園</t>
+    <t>红木国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>洛磯山國家公園</t>
+    <t>洛矶山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%BA%BA%E6%9F%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨人柱國家公園</t>
+    <t>巨人柱国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨杉國家公園</t>
+    <t>巨杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E7%B4%8D%E5%BA%A6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>仙納度國家公園</t>
+    <t>仙纳度国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>西奥多·羅斯福國家公園</t>
+    <t>西奥多·罗斯福国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>維爾京群島國家公園</t>
+    <t>维尔京群岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B5%E5%A4%AB%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>樵夫國家公園</t>
+    <t>樵夫国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>風洞國家公園</t>
+    <t>风洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE%EF%BC%8D%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>弗蘭格爾－聖伊萊亞斯國家公園</t>
+    <t>弗兰格尔－圣伊莱亚斯国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
+    <t>黄石国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>優勝美地國家公園</t>
+    <t>优胜美地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>錫安國家公園</t>
+    <t>锡安国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E8%BF%AA%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
+    <t>世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%9C%8D%E5%9F%BA%E4%BA%9E%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>卡霍基亞遺址</t>
+    <t>卡霍基亚遗址</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/La_Fortaleza</t>
@@ -503,25 +500,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%9B%A7%E6%81%A9/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE-%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF/%E5%86%B0%E5%B7%9D%E7%81%A3/%E5%A1%94%E7%90%B4%E5%B8%8C%E5%B0%BC-%E9%98%BF%E7%88%BE%E5%A1%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>克盧恩/弗蘭格爾-聖伊萊亞斯/冰川灣/塔琴希尼-阿爾塞克</t>
+    <t>克卢恩/弗兰格尔-圣伊莱亚斯/冰川湾/塔琴希尼-阿尔塞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8A%B8%E6%B4%9E%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
   </si>
   <si>
-    <t>猛犸洞国家公园</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%E9%A0%93-%E5%86%B0%E5%B7%9D%E5%9C%8B%E9%9A%9B%E5%92%8C%E5%B9%B3%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>沃特頓-冰川國際和平公園</t>
+    <t>沃特顿-冰川国际和平公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B8%95%E5%93%88%E7%91%99%E8%8E%AB%E5%A4%B8%E5%9F%BA%E4%BA%9E%E5%9C%8B%E5%AE%B6%E6%B5%B7%E6%B4%8B%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>帕帕哈瑙莫夸基亞國家海洋保護區</t>
+    <t>帕帕哈瑙莫夸基亚国家海洋保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -531,9 +525,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7</t>
-  </si>
-  <si>
-    <t>世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%92%8C%E5%8C%97%E7%BE%8E%E6%B4%B2%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7</t>
@@ -1171,7 +1162,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1197,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -1226,10 +1217,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1255,10 +1246,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1284,10 +1275,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1313,10 +1304,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1342,10 +1333,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1371,10 +1362,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1400,10 +1391,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1429,10 +1420,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1458,10 +1449,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1487,10 +1478,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1516,10 +1507,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1545,10 +1536,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1574,10 +1565,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1603,10 +1594,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1632,10 +1623,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1661,10 +1652,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1690,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1719,10 +1710,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1748,10 +1739,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1777,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -1806,10 +1797,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1835,10 +1826,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1864,10 +1855,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1893,10 +1884,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1922,10 +1913,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1951,10 +1942,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1980,10 +1971,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2009,10 +2000,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2038,10 +2029,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2067,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2096,10 +2087,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2125,10 +2116,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2154,10 +2145,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2183,10 +2174,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2212,10 +2203,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2241,10 +2232,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2270,10 +2261,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2299,10 +2290,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2328,10 +2319,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2357,10 +2348,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2386,10 +2377,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2415,10 +2406,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2444,10 +2435,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2473,10 +2464,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2502,10 +2493,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2531,10 +2522,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2560,10 +2551,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2589,10 +2580,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2618,10 +2609,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2647,10 +2638,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2676,10 +2667,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2705,10 +2696,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2734,10 +2725,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2763,10 +2754,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2792,10 +2783,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2821,10 +2812,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2850,10 +2841,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2879,10 +2870,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2908,10 +2899,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>56</v>
@@ -2937,10 +2928,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -2966,10 +2957,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" t="s">
         <v>101</v>
-      </c>
-      <c r="F72" t="s">
-        <v>102</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2995,10 +2986,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3024,10 +3015,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3053,10 +3044,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3082,10 +3073,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3111,10 +3102,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3140,10 +3131,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3169,10 +3160,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3198,10 +3189,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3227,10 +3218,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3256,10 +3247,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" t="s">
         <v>133</v>
-      </c>
-      <c r="F82" t="s">
-        <v>134</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3285,10 +3276,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3314,10 +3305,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84" t="s">
         <v>65</v>
-      </c>
-      <c r="F84" t="s">
-        <v>66</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3343,10 +3334,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" t="s">
         <v>57</v>
-      </c>
-      <c r="F85" t="s">
-        <v>58</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3372,10 +3363,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" t="s">
         <v>113</v>
-      </c>
-      <c r="F86" t="s">
-        <v>114</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3401,10 +3392,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3430,10 +3421,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>106</v>
+      </c>
+      <c r="F88" t="s">
         <v>107</v>
-      </c>
-      <c r="F88" t="s">
-        <v>108</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3459,10 +3450,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" t="s">
         <v>73</v>
-      </c>
-      <c r="F89" t="s">
-        <v>74</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3488,10 +3479,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" t="s">
         <v>135</v>
-      </c>
-      <c r="F90" t="s">
-        <v>136</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3517,10 +3508,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3546,10 +3537,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s">
         <v>79</v>
-      </c>
-      <c r="F92" t="s">
-        <v>80</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3575,10 +3566,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3604,10 +3595,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3633,10 +3624,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -3662,10 +3653,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
